--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-15_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-15_valid.xlsx
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2517</v>
+        <v>2539</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AZ23">
-        <v>290.4230769230769</v>
+        <v>292.9615384615384</v>
       </c>
       <c r="BA23">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="CL23">
-        <v>0.3416742081447964</v>
+        <v>0.3446606334841628</v>
       </c>
       <c r="CM23">
         <v>0</v>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.3416742081447964</v>
+        <v>0.3446606334841628</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4811</v>
+        <v>4848</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>550.8778625954199</v>
+        <v>555.1145038167939</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -9788,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="CL27">
-        <v>0.6480916030534352</v>
+        <v>0.653075886843287</v>
       </c>
       <c r="CM27">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.6480916030534352</v>
+        <v>0.653075886843287</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -19501,7 +19501,7 @@
         <v>0</v>
       </c>
       <c r="AZ58">
-        <v>60</v>
+        <v>77.77777777777777</v>
       </c>
       <c r="BA58">
         <v>0</v>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="CL58">
-        <v>0.07058823529411765</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="CM58">
         <v>0</v>
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.2002628024069753</v>
+        <v>0.2014417290924721</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -21923,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="O66">
         <v>0</v>
@@ -22037,7 +22037,7 @@
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>429.5145631067961</v>
+        <v>434.757281553398</v>
       </c>
       <c r="BA66">
         <v>0</v>
@@ -22151,7 +22151,7 @@
         <v>0</v>
       </c>
       <c r="CL66">
-        <v>0.5053112507138777</v>
+        <v>0.5114791547687035</v>
       </c>
       <c r="CM66">
         <v>0</v>
@@ -22196,7 +22196,7 @@
         <v>0</v>
       </c>
       <c r="DA66">
-        <v>0.4817351298061123</v>
+        <v>0.4870588235294117</v>
       </c>
     </row>
     <row r="67" spans="1:105">
